--- a/Assignment-03-Preparation-Rubric.xlsx
+++ b/Assignment-03-Preparation-Rubric.xlsx
@@ -1,12 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jimmy Pan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2FA5A4-46D3-4CDA-9A9F-328484C480FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -184,73 +206,92 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="24.0"/>
+      <sz val="24"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
-    <font/>
     <font>
-      <b/>
-      <sz val="12.0"/>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="13.0"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -258,7 +299,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -292,28 +333,12 @@
     </fill>
   </fills>
   <borders count="26">
-    <border/>
     <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -322,14 +347,24 @@
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="thin">
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -338,93 +373,112 @@
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="thick">
+      <top/>
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
+      <right/>
+      <top/>
+      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -433,84 +487,140 @@
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
-      <top style="thick">
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
-      <bottom style="thick">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -519,374 +629,346 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="120">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="6" fontId="9" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="11" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="9" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="21" fillId="0" fontId="11" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="9" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="24" fillId="0" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="24" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1076,37 +1158,40 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:Z977"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2.0" ySplit="9.0" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C1" sqref="C1" pane="topRight"/>
-      <selection activeCell="A10" sqref="A10" pane="bottomLeft"/>
-      <selection activeCell="C10" sqref="C10" pane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.13"/>
-    <col customWidth="1" min="2" max="2" width="79.63"/>
-    <col customWidth="1" min="3" max="3" width="8.88"/>
-    <col customWidth="1" min="4" max="4" width="16.88"/>
-    <col customWidth="1" min="5" max="5" width="70.0"/>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="2" max="2" width="79.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -1114,4588 +1199,4590 @@
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="116" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4">
+      <c r="D3" s="5"/>
+      <c r="E3" s="117"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5">
+      <c r="D4" s="5"/>
+      <c r="E4" s="117"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6">
+      <c r="D5" s="5"/>
+      <c r="E5" s="118"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7">
-      <c r="A7" s="6"/>
-      <c r="B7" s="11" t="s">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="13"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="13"/>
-      <c r="B9" s="16" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11">
-      <c r="A11" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="B11" s="26" t="s">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>1</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="24">
         <v>0.5</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="28"/>
-      <c r="B12" s="26" t="s">
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="24">
         <v>0.5</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32" t="s">
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="30">
         <v>0.5</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="30"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="25">
-        <v>2.0</v>
-      </c>
-      <c r="B14" s="26" t="s">
+      <c r="D13" s="28"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="27"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
+        <v>2</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="28"/>
-      <c r="B15" s="26" t="s">
+      <c r="C14" s="24">
+        <v>1</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="24">
         <v>0.5</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36" t="s">
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="34">
         <v>0.5</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="28"/>
-      <c r="B17" s="38" t="s">
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="24">
         <v>0.5</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="30"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32" t="s">
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="30">
         <v>0.5</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="30"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="25">
-        <v>3.0</v>
-      </c>
-      <c r="B19" s="39" t="s">
+      <c r="D18" s="28"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="27"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
+        <v>3</v>
+      </c>
+      <c r="B19" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="24">
         <v>0.25</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="40"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="37"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
+      <c r="B20" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="43">
+      <c r="C20" s="40">
         <v>0.25</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="40"/>
-    </row>
-    <row r="21">
+      <c r="D20" s="38"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="37"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="46">
-        <f t="shared" ref="C21:D21" si="1">sum(C11:C20)</f>
+      <c r="C21" s="43">
+        <f t="shared" ref="C21:D21" si="0">SUM(C11:C20)</f>
         <v>5</v>
       </c>
-      <c r="D21" s="47">
-        <f t="shared" si="1"/>
+      <c r="D21" s="44">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25">
-      <c r="A25" s="48"/>
-      <c r="B25" s="49" t="s">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="45"/>
+      <c r="B25" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26">
-      <c r="A26" s="50">
-        <v>2.0</v>
-      </c>
-      <c r="B26" s="51" t="s">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="47">
+        <v>2</v>
+      </c>
+      <c r="B26" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="54"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="51"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27">
-      <c r="A27" s="55"/>
-      <c r="B27" s="56" t="s">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="52"/>
+      <c r="B27" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="57">
+      <c r="C27" s="54">
         <v>0.5</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="58"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="55"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28">
-      <c r="A28" s="55"/>
-      <c r="B28" s="56" t="s">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="52"/>
+      <c r="B28" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="57">
+      <c r="C28" s="54">
         <v>0.5</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="58"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="55"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29">
-      <c r="A29" s="55"/>
-      <c r="B29" s="59" t="s">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="52"/>
+      <c r="B29" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="57">
+      <c r="C29" s="54">
         <v>0.5</v>
       </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="60"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="57"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30">
-      <c r="A30" s="61"/>
-      <c r="B30" s="62" t="s">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="58"/>
+      <c r="B30" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="63">
+      <c r="C30" s="60">
         <v>0.5</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="58"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="55"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31">
-      <c r="A31" s="61"/>
-      <c r="B31" s="56" t="s">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="58"/>
+      <c r="B31" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="57">
+      <c r="C31" s="54">
         <v>0.5</v>
       </c>
-      <c r="D31" s="55"/>
-      <c r="E31" s="58"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="55"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32">
-      <c r="A32" s="64"/>
-      <c r="B32" s="65" t="s">
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="61"/>
+      <c r="B32" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="66"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="68"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="65"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33">
-      <c r="A33" s="64"/>
-      <c r="B33" s="69" t="s">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="61"/>
+      <c r="B33" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="57">
+      <c r="C33" s="54">
         <v>0.5</v>
       </c>
-      <c r="D33" s="55"/>
-      <c r="E33" s="58"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="55"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34">
-      <c r="A34" s="64"/>
-      <c r="B34" s="69" t="s">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="61"/>
+      <c r="B34" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="57">
+      <c r="C34" s="54">
         <v>0.5</v>
       </c>
-      <c r="D34" s="55"/>
-      <c r="E34" s="58"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="55"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35">
-      <c r="A35" s="64"/>
-      <c r="B35" s="69" t="s">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="61"/>
+      <c r="B35" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="57">
+      <c r="C35" s="54">
         <v>0.5</v>
       </c>
-      <c r="D35" s="55"/>
-      <c r="E35" s="58"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="55"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36">
-      <c r="A36" s="64"/>
-      <c r="B36" s="69" t="s">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="61"/>
+      <c r="B36" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="57">
+      <c r="C36" s="54">
         <v>0.5</v>
       </c>
-      <c r="D36" s="70"/>
-      <c r="E36" s="58"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="55"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37">
-      <c r="A37" s="55"/>
-      <c r="B37" s="56" t="s">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="52"/>
+      <c r="B37" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="57">
+      <c r="C37" s="54">
         <v>0.5</v>
       </c>
-      <c r="D37" s="55"/>
-      <c r="E37" s="58"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="55"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38">
-      <c r="A38" s="55"/>
-      <c r="B38" s="71" t="s">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="52"/>
+      <c r="B38" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="72"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="74"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="71"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39">
-      <c r="A39" s="55"/>
-      <c r="B39" s="56" t="s">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="52"/>
+      <c r="B39" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="57">
+      <c r="C39" s="54">
         <v>0.5</v>
       </c>
-      <c r="D39" s="55"/>
-      <c r="E39" s="58"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="55"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40">
-      <c r="A40" s="55"/>
-      <c r="B40" s="56" t="s">
+    <row r="40" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="52"/>
+      <c r="B40" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="57">
+      <c r="C40" s="54">
         <v>0.5</v>
       </c>
-      <c r="D40" s="55"/>
-      <c r="E40" s="58"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="55"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41">
-      <c r="A41" s="55"/>
-      <c r="B41" s="56" t="s">
+    <row r="41" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="52"/>
+      <c r="B41" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="57">
+      <c r="C41" s="54">
         <v>0.5</v>
       </c>
-      <c r="D41" s="55"/>
-      <c r="E41" s="58"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="55"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42">
-      <c r="A42" s="55"/>
-      <c r="B42" s="62" t="s">
+    <row r="42" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="52"/>
+      <c r="B42" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="63">
+      <c r="C42" s="60">
         <v>0.5</v>
       </c>
-      <c r="D42" s="55"/>
-      <c r="E42" s="58"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="55"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43">
-      <c r="A43" s="55"/>
-      <c r="B43" s="56" t="s">
+    <row r="43" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="52"/>
+      <c r="B43" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="57">
+      <c r="C43" s="54">
         <v>0.5</v>
       </c>
-      <c r="D43" s="55"/>
-      <c r="E43" s="58"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="55"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44">
-      <c r="A44" s="75"/>
-      <c r="B44" s="65" t="s">
+    <row r="44" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="72"/>
+      <c r="B44" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="66"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="68"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="65"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45">
-      <c r="A45" s="55"/>
-      <c r="B45" s="56" t="s">
+    <row r="45" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="52"/>
+      <c r="B45" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="57">
+      <c r="C45" s="54">
         <v>0.5</v>
       </c>
-      <c r="D45" s="55"/>
-      <c r="E45" s="58"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="55"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46">
-      <c r="A46" s="55"/>
-      <c r="B46" s="56" t="s">
+    <row r="46" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="52"/>
+      <c r="B46" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="57">
+      <c r="C46" s="54">
         <v>0.5</v>
       </c>
-      <c r="D46" s="55"/>
-      <c r="E46" s="58"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="55"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47">
-      <c r="A47" s="55"/>
-      <c r="B47" s="56" t="s">
+    <row r="47" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="52"/>
+      <c r="B47" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="57">
+      <c r="C47" s="54">
         <v>0.5</v>
       </c>
-      <c r="D47" s="55"/>
-      <c r="E47" s="58"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="55"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48">
-      <c r="A48" s="55"/>
-      <c r="B48" s="56" t="s">
+    <row r="48" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="52"/>
+      <c r="B48" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="57">
+      <c r="C48" s="54">
         <v>0.5</v>
       </c>
-      <c r="D48" s="55"/>
-      <c r="E48" s="58"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="55"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49">
-      <c r="A49" s="55"/>
-      <c r="B49" s="56" t="s">
+    <row r="49" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="52"/>
+      <c r="B49" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="57">
+      <c r="C49" s="54">
         <v>0.5</v>
       </c>
-      <c r="D49" s="55"/>
-      <c r="E49" s="58"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="55"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50">
-      <c r="A50" s="55"/>
-      <c r="B50" s="71" t="s">
+    <row r="50" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="52"/>
+      <c r="B50" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="72"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="74"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="71"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51">
-      <c r="A51" s="55"/>
-      <c r="B51" s="56" t="s">
+    <row r="51" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="52"/>
+      <c r="B51" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="57">
+      <c r="C51" s="54">
         <v>0.5</v>
       </c>
-      <c r="D51" s="55"/>
-      <c r="E51" s="58"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="55"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52">
-      <c r="A52" s="55"/>
-      <c r="B52" s="56" t="s">
+    <row r="52" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="52"/>
+      <c r="B52" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="57">
+      <c r="C52" s="54">
         <v>0.5</v>
       </c>
-      <c r="D52" s="55"/>
-      <c r="E52" s="58"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="55"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53">
-      <c r="A53" s="55"/>
-      <c r="B53" s="56" t="s">
+    <row r="53" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="52"/>
+      <c r="B53" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="57">
+      <c r="C53" s="54">
         <v>0.5</v>
       </c>
-      <c r="D53" s="55"/>
-      <c r="E53" s="58"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="55"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54">
-      <c r="A54" s="55"/>
-      <c r="B54" s="62" t="s">
+    <row r="54" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="52"/>
+      <c r="B54" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C54" s="63">
+      <c r="C54" s="60">
         <v>0.5</v>
       </c>
-      <c r="D54" s="55"/>
-      <c r="E54" s="58"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="55"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55">
-      <c r="A55" s="55"/>
-      <c r="B55" s="56" t="s">
+    <row r="55" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="52"/>
+      <c r="B55" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C55" s="57">
+      <c r="C55" s="54">
         <v>0.5</v>
       </c>
-      <c r="D55" s="55"/>
-      <c r="E55" s="58"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="55"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56">
-      <c r="A56" s="55"/>
-      <c r="B56" s="76" t="s">
+    <row r="56" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="52"/>
+      <c r="B56" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="C56" s="66"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="77"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="74"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57">
-      <c r="A57" s="55"/>
-      <c r="B57" s="69" t="s">
+    <row r="57" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="52"/>
+      <c r="B57" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="57">
+      <c r="C57" s="54">
         <v>0.5</v>
       </c>
-      <c r="D57" s="55"/>
-      <c r="E57" s="58"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="55"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58">
-      <c r="A58" s="55"/>
-      <c r="B58" s="69" t="s">
+    <row r="58" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A58" s="52"/>
+      <c r="B58" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="57">
+      <c r="C58" s="54">
         <v>0.5</v>
       </c>
-      <c r="D58" s="55"/>
-      <c r="E58" s="58"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="55"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59">
-      <c r="A59" s="55"/>
-      <c r="B59" s="56" t="s">
+    <row r="59" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="52"/>
+      <c r="B59" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="57">
+      <c r="C59" s="54">
         <v>0.5</v>
       </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="58"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="55"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60">
-      <c r="A60" s="55"/>
-      <c r="B60" s="69" t="s">
+    <row r="60" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="52"/>
+      <c r="B60" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="57">
+      <c r="C60" s="54">
         <v>0.5</v>
       </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="58"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="55"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61">
-      <c r="A61" s="78"/>
-      <c r="B61" s="79" t="s">
+    <row r="61" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A61" s="75"/>
+      <c r="B61" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="C61" s="80">
+      <c r="C61" s="77">
         <v>0.5</v>
       </c>
-      <c r="D61" s="81"/>
-      <c r="E61" s="54"/>
+      <c r="D61" s="78"/>
+      <c r="E61" s="51"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62">
-      <c r="A62" s="82">
-        <v>3.0</v>
-      </c>
-      <c r="B62" s="83" t="s">
+    <row r="62" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="79">
+        <v>3</v>
+      </c>
+      <c r="B62" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="C62" s="84">
-        <v>5.0</v>
-      </c>
-      <c r="D62" s="85"/>
-      <c r="E62" s="86"/>
+      <c r="C62" s="81">
+        <v>5</v>
+      </c>
+      <c r="D62" s="82"/>
+      <c r="E62" s="83"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63">
-      <c r="A63" s="13"/>
-      <c r="B63" s="45" t="s">
+    <row r="63" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A63" s="10"/>
+      <c r="B63" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="87">
-        <f>sum(C26:C62)</f>
+      <c r="C63" s="84">
+        <f>SUM(C26:C62)</f>
         <v>20</v>
       </c>
-      <c r="D63" s="87">
-        <f>sum(D27:D62)-D56-D50-D44-D38-D32</f>
+      <c r="D63" s="84">
+        <f>SUM(D27:D62)-D56-D50-D44-D38-D32</f>
         <v>0</v>
       </c>
-      <c r="E63" s="14"/>
+      <c r="E63" s="11"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64">
-      <c r="A64" s="13"/>
-      <c r="B64" s="45"/>
-      <c r="C64" s="88"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="14"/>
+    <row r="64" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A64" s="10"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="11"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65">
-      <c r="A65" s="13"/>
-      <c r="B65" s="89" t="s">
+    <row r="65" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A65" s="10"/>
+      <c r="B65" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="C65" s="90">
+      <c r="C65" s="87">
         <f>SUM(C21,C63)</f>
         <v>25</v>
       </c>
-      <c r="D65" s="91">
+      <c r="D65" s="88">
         <f>D63+D21</f>
         <v>0</v>
       </c>
-      <c r="E65" s="14"/>
+      <c r="E65" s="11"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66">
-      <c r="A66" s="13"/>
-      <c r="B66" s="45"/>
-      <c r="C66" s="92"/>
-      <c r="D66" s="93"/>
-      <c r="E66" s="14"/>
+    <row r="66" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A66" s="10"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="89"/>
+      <c r="D66" s="90"/>
+      <c r="E66" s="11"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67">
-      <c r="A67" s="13"/>
-      <c r="B67" s="94"/>
-      <c r="C67" s="95"/>
-      <c r="D67" s="96"/>
-      <c r="E67" s="97"/>
+    <row r="67" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A67" s="10"/>
+      <c r="B67" s="91"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="93"/>
+      <c r="E67" s="94"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68">
-      <c r="A68" s="98"/>
-      <c r="B68" s="99" t="s">
+    <row r="68" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.35">
+      <c r="A68" s="95"/>
+      <c r="B68" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C68" s="100" t="s">
+      <c r="C68" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="D68" s="6"/>
-      <c r="E68" s="58"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="55"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69">
-      <c r="A69" s="55"/>
-      <c r="B69" s="101" t="s">
+    <row r="69" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A69" s="52"/>
+      <c r="B69" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="C69" s="102"/>
-      <c r="D69" s="103"/>
-      <c r="E69" s="104"/>
+      <c r="C69" s="99"/>
+      <c r="D69" s="100"/>
+      <c r="E69" s="101"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70">
-      <c r="A70" s="55"/>
-      <c r="B70" s="101" t="s">
+    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="52"/>
+      <c r="B70" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="C70" s="102">
-        <v>3.0</v>
-      </c>
-      <c r="D70" s="103"/>
-      <c r="E70" s="14"/>
+      <c r="C70" s="99">
+        <v>3</v>
+      </c>
+      <c r="D70" s="100"/>
+      <c r="E70" s="11"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71">
-      <c r="A71" s="55"/>
-      <c r="B71" s="101" t="s">
+    <row r="71" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A71" s="52"/>
+      <c r="B71" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="C71" s="102"/>
-      <c r="D71" s="103"/>
-      <c r="E71" s="14"/>
+      <c r="C71" s="99"/>
+      <c r="D71" s="100"/>
+      <c r="E71" s="11"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72">
-      <c r="A72" s="47"/>
-      <c r="B72" s="101" t="s">
+    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="44"/>
+      <c r="B72" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="C72" s="102">
-        <v>3.0</v>
-      </c>
-      <c r="D72" s="103"/>
-      <c r="E72" s="14"/>
+      <c r="C72" s="99">
+        <v>3</v>
+      </c>
+      <c r="D72" s="100"/>
+      <c r="E72" s="11"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73">
-      <c r="A73" s="13"/>
-      <c r="B73" s="45" t="s">
+    <row r="73" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A73" s="10"/>
+      <c r="B73" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C73" s="105">
+      <c r="C73" s="102">
         <f>SUM(C69)</f>
         <v>0</v>
       </c>
-      <c r="D73" s="98">
-        <f>sum(D70,D72)</f>
+      <c r="D73" s="95">
+        <f>SUM(D70,D72)</f>
         <v>0</v>
       </c>
-      <c r="E73" s="14"/>
+      <c r="E73" s="11"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74">
-      <c r="A74" s="13"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="96"/>
-      <c r="D74" s="96"/>
-      <c r="E74" s="14"/>
+    <row r="74" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A74" s="10"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="93"/>
+      <c r="D74" s="93"/>
+      <c r="E74" s="11"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75">
-      <c r="A75" s="13"/>
-      <c r="B75" s="106" t="s">
+    <row r="75" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A75" s="10"/>
+      <c r="B75" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="C75" s="107">
+      <c r="C75" s="104">
         <f>SUM(C73,C65)</f>
         <v>25</v>
       </c>
-      <c r="D75" s="108">
+      <c r="D75" s="105">
         <f>D65+D73</f>
         <v>0</v>
       </c>
-      <c r="E75" s="14"/>
+      <c r="E75" s="11"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76">
-      <c r="A76" s="13"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="88"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="14"/>
+    <row r="76" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A76" s="10"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="85"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="11"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77">
-      <c r="A77" s="13"/>
-      <c r="B77" s="97"/>
-      <c r="C77" s="88"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="14"/>
+    <row r="77" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A77" s="10"/>
+      <c r="B77" s="94"/>
+      <c r="C77" s="85"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="11"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78">
-      <c r="A78" s="6"/>
-      <c r="B78" s="109" t="s">
+    <row r="78" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="5"/>
+      <c r="B78" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="C78" s="95"/>
-      <c r="D78" s="96"/>
-      <c r="E78" s="97"/>
+      <c r="C78" s="92"/>
+      <c r="D78" s="93"/>
+      <c r="E78" s="94"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79">
-      <c r="A79" s="6"/>
-      <c r="B79" s="110" t="s">
+    <row r="79" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A79" s="5"/>
+      <c r="B79" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="C79" s="111" t="s">
+      <c r="C79" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="D79" s="112" t="s">
+      <c r="D79" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="E79" s="113"/>
+      <c r="E79" s="110"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80">
-      <c r="A80" s="6"/>
-      <c r="B80" s="114" t="s">
+    <row r="80" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A80" s="5"/>
+      <c r="B80" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="C80" s="115">
-        <v>2.0</v>
-      </c>
-      <c r="D80" s="116"/>
-      <c r="E80" s="86"/>
+      <c r="C80" s="112">
+        <v>2</v>
+      </c>
+      <c r="D80" s="113">
+        <v>1</v>
+      </c>
+      <c r="E80" s="83"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81">
-      <c r="A81" s="13"/>
-      <c r="B81" s="45" t="s">
+    <row r="81" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A81" s="10"/>
+      <c r="B81" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C81" s="117">
-        <f t="shared" ref="C81:D81" si="2">SUM(C80)</f>
+      <c r="C81" s="114">
+        <f t="shared" ref="C81:D81" si="1">SUM(C80)</f>
         <v>2</v>
       </c>
-      <c r="D81" s="118">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E81" s="14"/>
+      <c r="D81" s="115">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E81" s="11"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82">
-      <c r="A82" s="13"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="88"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="14"/>
+    <row r="82" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A82" s="10"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="85"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="11"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83">
-      <c r="A83" s="13"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="88"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="14"/>
+    <row r="83" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A83" s="10"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="85"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="11"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84">
-      <c r="A84" s="13"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="95"/>
-      <c r="D84" s="96"/>
-      <c r="E84" s="14"/>
+    <row r="84" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A84" s="10"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="92"/>
+      <c r="D84" s="93"/>
+      <c r="E84" s="11"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85">
-      <c r="A85" s="13"/>
-      <c r="B85" s="106" t="s">
+    <row r="85" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A85" s="10"/>
+      <c r="B85" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="C85" s="107">
+      <c r="C85" s="104">
         <f>C75</f>
         <v>25</v>
       </c>
-      <c r="D85" s="108">
+      <c r="D85" s="105">
         <f>D75-D81</f>
-        <v>0</v>
-      </c>
-      <c r="E85" s="14"/>
+        <v>-1</v>
+      </c>
+      <c r="E85" s="11"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="D115" s="1"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="D119" s="1"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="D120" s="1"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="D121" s="1"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="D122" s="1"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="D123" s="1"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="D125" s="1"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="D126" s="1"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="D127" s="1"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="D128" s="1"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="D129" s="1"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="D130" s="1"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="D131" s="1"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="D132" s="1"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="D133" s="1"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="D134" s="1"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="D135" s="1"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="D136" s="1"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="D137" s="1"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="D138" s="1"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="D139" s="1"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="D140" s="1"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="D141" s="1"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="D142" s="1"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="D143" s="1"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="D144" s="1"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="D145" s="1"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="D146" s="1"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="D147" s="1"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="D148" s="1"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="D149" s="1"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="D150" s="1"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="D151" s="1"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="D152" s="1"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="D153" s="1"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="D154" s="1"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="D155" s="1"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="D156" s="1"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="D157" s="1"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="D158" s="1"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="D159" s="1"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="D160" s="1"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="D161" s="1"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="D162" s="1"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="D163" s="1"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="D164" s="1"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="D165" s="1"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="D166" s="1"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="D167" s="1"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="D168" s="1"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="D169" s="1"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="D170" s="1"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="D171" s="1"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="D172" s="1"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="D173" s="1"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="D174" s="1"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="D175" s="1"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="D176" s="1"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="D177" s="1"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="D178" s="1"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="D179" s="1"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="D180" s="1"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="D181" s="1"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="D182" s="1"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="D183" s="1"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="D184" s="1"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="D185" s="1"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="D186" s="1"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="D187" s="1"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="D188" s="1"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="D189" s="1"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="D190" s="1"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="D191" s="1"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="D192" s="1"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="D193" s="1"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="D194" s="1"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="D195" s="1"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="D196" s="1"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="D197" s="1"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="D198" s="1"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="D199" s="1"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="D200" s="1"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="D201" s="1"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="D202" s="1"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="D203" s="1"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="D204" s="1"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="D205" s="1"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="D206" s="1"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="D207" s="1"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="D208" s="1"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="D209" s="1"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="D210" s="1"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="D211" s="1"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="D212" s="1"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="D213" s="1"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="D214" s="1"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="D215" s="1"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="D216" s="1"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="D217" s="1"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="D218" s="1"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="D219" s="1"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="D220" s="1"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="D221" s="1"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="D222" s="1"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="D223" s="1"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="D224" s="1"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="D225" s="1"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="D226" s="1"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="D227" s="1"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="D228" s="1"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="D229" s="1"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="D230" s="1"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="D231" s="1"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="D232" s="1"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="D233" s="1"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="D234" s="1"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="D235" s="1"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="D236" s="1"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="D237" s="1"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="D238" s="1"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="D239" s="1"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="D240" s="1"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="D241" s="1"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="D242" s="1"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="D243" s="1"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="D244" s="1"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="D245" s="1"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="D246" s="1"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="D247" s="1"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="D248" s="1"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="D249" s="1"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="D250" s="1"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="D251" s="1"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="D252" s="1"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="D253" s="1"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="D254" s="1"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="D255" s="1"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="D256" s="1"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="D257" s="1"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="D258" s="1"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="D259" s="1"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="D260" s="1"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="D261" s="1"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="D262" s="1"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="D263" s="1"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="D264" s="1"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="D265" s="1"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="D266" s="1"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="D267" s="1"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="D268" s="1"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="D269" s="1"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="D270" s="1"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="D271" s="1"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="D272" s="1"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="D273" s="1"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="D274" s="1"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="D275" s="1"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="D276" s="1"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="D277" s="1"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="D278" s="1"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="D279" s="1"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="D280" s="1"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="D281" s="1"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="D282" s="1"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="D283" s="1"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="D284" s="1"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="D285" s="1"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="D286" s="1"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="D287" s="1"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="D288" s="1"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="D289" s="1"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="D290" s="1"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="D291" s="1"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="D292" s="1"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="D293" s="1"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="D294" s="1"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="D295" s="1"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="D296" s="1"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="D297" s="1"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="D298" s="1"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="D299" s="1"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="D300" s="1"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="D301" s="1"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="D302" s="1"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="D303" s="1"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="D304" s="1"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="D305" s="1"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="D306" s="1"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="D307" s="1"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="D308" s="1"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="D309" s="1"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="D310" s="1"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="D311" s="1"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="D312" s="1"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="D313" s="1"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="D314" s="1"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="D315" s="1"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="D316" s="1"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="D317" s="1"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="D318" s="1"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="D319" s="1"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="D320" s="1"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="D321" s="1"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="D322" s="1"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="D323" s="1"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="D324" s="1"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="D325" s="1"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="D326" s="1"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="D327" s="1"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="D328" s="1"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="D329" s="1"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="D330" s="1"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="D331" s="1"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="D332" s="1"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="D333" s="1"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="D334" s="1"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="D335" s="1"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="D336" s="1"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="D337" s="1"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="D338" s="1"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="D339" s="1"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="D340" s="1"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="D341" s="1"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="D342" s="1"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="D343" s="1"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="D344" s="1"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="D345" s="1"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="D346" s="1"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="D347" s="1"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="D348" s="1"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="D349" s="1"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="D350" s="1"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="D351" s="1"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="D352" s="1"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="D353" s="1"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="D354" s="1"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="D355" s="1"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="D356" s="1"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="D357" s="1"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="D358" s="1"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="D359" s="1"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="D360" s="1"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="D361" s="1"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="D362" s="1"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="D363" s="1"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="D364" s="1"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="D365" s="1"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="D366" s="1"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="D367" s="1"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="D368" s="1"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="D369" s="1"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="D370" s="1"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="D371" s="1"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="D372" s="1"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="D373" s="1"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="D374" s="1"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="D375" s="1"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="D376" s="1"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="D377" s="1"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="D378" s="1"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="D379" s="1"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="D380" s="1"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="D381" s="1"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="D382" s="1"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="D383" s="1"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="D384" s="1"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="D385" s="1"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="D386" s="1"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="D387" s="1"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="D388" s="1"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="D389" s="1"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="D390" s="1"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="D391" s="1"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="D392" s="1"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="D393" s="1"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="D394" s="1"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="D395" s="1"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="D396" s="1"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="D397" s="1"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="D398" s="1"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="D399" s="1"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="D400" s="1"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="D401" s="1"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="D402" s="1"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="D403" s="1"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="D404" s="1"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="D405" s="1"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="D406" s="1"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="D407" s="1"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="D408" s="1"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="D409" s="1"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="D410" s="1"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="D411" s="1"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="D412" s="1"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="D413" s="1"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="D414" s="1"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="D415" s="1"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="D416" s="1"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="D417" s="1"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="D418" s="1"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="D419" s="1"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="D420" s="1"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="D421" s="1"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="D422" s="1"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="D423" s="1"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="D424" s="1"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="D425" s="1"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="D426" s="1"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="D427" s="1"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="D428" s="1"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="D429" s="1"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="D430" s="1"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="D431" s="1"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="D432" s="1"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="D433" s="1"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="D434" s="1"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="D435" s="1"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="D436" s="1"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="D437" s="1"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="D438" s="1"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="D439" s="1"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="D440" s="1"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="D441" s="1"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="D442" s="1"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="D443" s="1"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="D444" s="1"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="D445" s="1"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="D446" s="1"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="D447" s="1"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="D448" s="1"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="D449" s="1"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="D450" s="1"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="D451" s="1"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="D452" s="1"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="D453" s="1"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="D454" s="1"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="D455" s="1"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="D456" s="1"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="D457" s="1"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="D458" s="1"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="D459" s="1"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="D460" s="1"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="D461" s="1"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="D462" s="1"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="D463" s="1"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="D464" s="1"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="D465" s="1"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="D466" s="1"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="D467" s="1"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="D468" s="1"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="D469" s="1"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="D470" s="1"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="D471" s="1"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="D472" s="1"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="D473" s="1"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="D474" s="1"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="D475" s="1"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="D476" s="1"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="D477" s="1"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="D478" s="1"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="D479" s="1"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="D480" s="1"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="D481" s="1"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="D482" s="1"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="D483" s="1"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="D484" s="1"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="D485" s="1"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="D486" s="1"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="D487" s="1"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="D488" s="1"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="D489" s="1"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="D490" s="1"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="D491" s="1"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="D492" s="1"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="D493" s="1"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="D494" s="1"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="D495" s="1"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="D496" s="1"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="D497" s="1"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="D498" s="1"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="D499" s="1"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="D500" s="1"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A501" s="1"/>
       <c r="D501" s="1"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
       <c r="D502" s="1"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
       <c r="D503" s="1"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A504" s="1"/>
       <c r="D504" s="1"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A505" s="1"/>
       <c r="D505" s="1"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A506" s="1"/>
       <c r="D506" s="1"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A507" s="1"/>
       <c r="D507" s="1"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A508" s="1"/>
       <c r="D508" s="1"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
       <c r="D509" s="1"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A510" s="1"/>
       <c r="D510" s="1"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A511" s="1"/>
       <c r="D511" s="1"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A512" s="1"/>
       <c r="D512" s="1"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A513" s="1"/>
       <c r="D513" s="1"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A514" s="1"/>
       <c r="D514" s="1"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
       <c r="D515" s="1"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
       <c r="D516" s="1"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A517" s="1"/>
       <c r="D517" s="1"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A518" s="1"/>
       <c r="D518" s="1"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A519" s="1"/>
       <c r="D519" s="1"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A520" s="1"/>
       <c r="D520" s="1"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A521" s="1"/>
       <c r="D521" s="1"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A522" s="1"/>
       <c r="D522" s="1"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A523" s="1"/>
       <c r="D523" s="1"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
       <c r="D524" s="1"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
       <c r="D525" s="1"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A526" s="1"/>
       <c r="D526" s="1"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A527" s="1"/>
       <c r="D527" s="1"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A528" s="1"/>
       <c r="D528" s="1"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A529" s="1"/>
       <c r="D529" s="1"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A530" s="1"/>
       <c r="D530" s="1"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A531" s="1"/>
       <c r="D531" s="1"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
       <c r="D532" s="1"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A533" s="1"/>
       <c r="D533" s="1"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A534" s="1"/>
       <c r="D534" s="1"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
       <c r="D535" s="1"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A536" s="1"/>
       <c r="D536" s="1"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A537" s="1"/>
       <c r="D537" s="1"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A538" s="1"/>
       <c r="D538" s="1"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A539" s="1"/>
       <c r="D539" s="1"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A540" s="1"/>
       <c r="D540" s="1"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A541" s="1"/>
       <c r="D541" s="1"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A542" s="1"/>
       <c r="D542" s="1"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A543" s="1"/>
       <c r="D543" s="1"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A544" s="1"/>
       <c r="D544" s="1"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A545" s="1"/>
       <c r="D545" s="1"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
       <c r="D546" s="1"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A547" s="1"/>
       <c r="D547" s="1"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
       <c r="D548" s="1"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A549" s="1"/>
       <c r="D549" s="1"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A550" s="1"/>
       <c r="D550" s="1"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A551" s="1"/>
       <c r="D551" s="1"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A552" s="1"/>
       <c r="D552" s="1"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A553" s="1"/>
       <c r="D553" s="1"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A554" s="1"/>
       <c r="D554" s="1"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="D555" s="1"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A556" s="1"/>
       <c r="D556" s="1"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
       <c r="D557" s="1"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A558" s="1"/>
       <c r="D558" s="1"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A559" s="1"/>
       <c r="D559" s="1"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A560" s="1"/>
       <c r="D560" s="1"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A561" s="1"/>
       <c r="D561" s="1"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
       <c r="D562" s="1"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A563" s="1"/>
       <c r="D563" s="1"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A564" s="1"/>
       <c r="D564" s="1"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A565" s="1"/>
       <c r="D565" s="1"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A566" s="1"/>
       <c r="D566" s="1"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
       <c r="D567" s="1"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A568" s="1"/>
       <c r="D568" s="1"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A569" s="1"/>
       <c r="D569" s="1"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A570" s="1"/>
       <c r="D570" s="1"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A571" s="1"/>
       <c r="D571" s="1"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A572" s="1"/>
       <c r="D572" s="1"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A573" s="1"/>
       <c r="D573" s="1"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A574" s="1"/>
       <c r="D574" s="1"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A575" s="1"/>
       <c r="D575" s="1"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A576" s="1"/>
       <c r="D576" s="1"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
       <c r="D577" s="1"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
       <c r="D578" s="1"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A579" s="1"/>
       <c r="D579" s="1"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A580" s="1"/>
       <c r="D580" s="1"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A581" s="1"/>
       <c r="D581" s="1"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A582" s="1"/>
       <c r="D582" s="1"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A583" s="1"/>
       <c r="D583" s="1"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A584" s="1"/>
       <c r="D584" s="1"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A585" s="1"/>
       <c r="D585" s="1"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A586" s="1"/>
       <c r="D586" s="1"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="D587" s="1"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A588" s="1"/>
       <c r="D588" s="1"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A589" s="1"/>
       <c r="D589" s="1"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A590" s="1"/>
       <c r="D590" s="1"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A591" s="1"/>
       <c r="D591" s="1"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A592" s="1"/>
       <c r="D592" s="1"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A593" s="1"/>
       <c r="D593" s="1"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A594" s="1"/>
       <c r="D594" s="1"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A595" s="1"/>
       <c r="D595" s="1"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A596" s="1"/>
       <c r="D596" s="1"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A597" s="1"/>
       <c r="D597" s="1"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A598" s="1"/>
       <c r="D598" s="1"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A599" s="1"/>
       <c r="D599" s="1"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A600" s="1"/>
       <c r="D600" s="1"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A601" s="1"/>
       <c r="D601" s="1"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A602" s="1"/>
       <c r="D602" s="1"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A603" s="1"/>
       <c r="D603" s="1"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A604" s="1"/>
       <c r="D604" s="1"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A605" s="1"/>
       <c r="D605" s="1"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A606" s="1"/>
       <c r="D606" s="1"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A607" s="1"/>
       <c r="D607" s="1"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A608" s="1"/>
       <c r="D608" s="1"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A609" s="1"/>
       <c r="D609" s="1"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A610" s="1"/>
       <c r="D610" s="1"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A611" s="1"/>
       <c r="D611" s="1"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A612" s="1"/>
       <c r="D612" s="1"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A613" s="1"/>
       <c r="D613" s="1"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A614" s="1"/>
       <c r="D614" s="1"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A615" s="1"/>
       <c r="D615" s="1"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A616" s="1"/>
       <c r="D616" s="1"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
       <c r="D617" s="1"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A618" s="1"/>
       <c r="D618" s="1"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A619" s="1"/>
       <c r="D619" s="1"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A620" s="1"/>
       <c r="D620" s="1"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A621" s="1"/>
       <c r="D621" s="1"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A622" s="1"/>
       <c r="D622" s="1"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A623" s="1"/>
       <c r="D623" s="1"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A624" s="1"/>
       <c r="D624" s="1"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A625" s="1"/>
       <c r="D625" s="1"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A626" s="1"/>
       <c r="D626" s="1"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="D627" s="1"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A628" s="1"/>
       <c r="D628" s="1"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A629" s="1"/>
       <c r="D629" s="1"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A630" s="1"/>
       <c r="D630" s="1"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A631" s="1"/>
       <c r="D631" s="1"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A632" s="1"/>
       <c r="D632" s="1"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A633" s="1"/>
       <c r="D633" s="1"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A634" s="1"/>
       <c r="D634" s="1"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A635" s="1"/>
       <c r="D635" s="1"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A636" s="1"/>
       <c r="D636" s="1"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A637" s="1"/>
       <c r="D637" s="1"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A638" s="1"/>
       <c r="D638" s="1"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A639" s="1"/>
       <c r="D639" s="1"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A640" s="1"/>
       <c r="D640" s="1"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A641" s="1"/>
       <c r="D641" s="1"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A642" s="1"/>
       <c r="D642" s="1"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A643" s="1"/>
       <c r="D643" s="1"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A644" s="1"/>
       <c r="D644" s="1"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A645" s="1"/>
       <c r="D645" s="1"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A646" s="1"/>
       <c r="D646" s="1"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A647" s="1"/>
       <c r="D647" s="1"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A648" s="1"/>
       <c r="D648" s="1"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A649" s="1"/>
       <c r="D649" s="1"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A650" s="1"/>
       <c r="D650" s="1"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A651" s="1"/>
       <c r="D651" s="1"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A652" s="1"/>
       <c r="D652" s="1"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A653" s="1"/>
       <c r="D653" s="1"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A654" s="1"/>
       <c r="D654" s="1"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A655" s="1"/>
       <c r="D655" s="1"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A656" s="1"/>
       <c r="D656" s="1"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A657" s="1"/>
       <c r="D657" s="1"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A658" s="1"/>
       <c r="D658" s="1"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A659" s="1"/>
       <c r="D659" s="1"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A660" s="1"/>
       <c r="D660" s="1"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A661" s="1"/>
       <c r="D661" s="1"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A662" s="1"/>
       <c r="D662" s="1"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A663" s="1"/>
       <c r="D663" s="1"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A664" s="1"/>
       <c r="D664" s="1"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A665" s="1"/>
       <c r="D665" s="1"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A666" s="1"/>
       <c r="D666" s="1"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A667" s="1"/>
       <c r="D667" s="1"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A668" s="1"/>
       <c r="D668" s="1"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A669" s="1"/>
       <c r="D669" s="1"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A670" s="1"/>
       <c r="D670" s="1"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A671" s="1"/>
       <c r="D671" s="1"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A672" s="1"/>
       <c r="D672" s="1"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A673" s="1"/>
       <c r="D673" s="1"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A674" s="1"/>
       <c r="D674" s="1"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A675" s="1"/>
       <c r="D675" s="1"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A676" s="1"/>
       <c r="D676" s="1"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
       <c r="D677" s="1"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A678" s="1"/>
       <c r="D678" s="1"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A679" s="1"/>
       <c r="D679" s="1"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A680" s="1"/>
       <c r="D680" s="1"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A681" s="1"/>
       <c r="D681" s="1"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A682" s="1"/>
       <c r="D682" s="1"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A683" s="1"/>
       <c r="D683" s="1"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A684" s="1"/>
       <c r="D684" s="1"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A685" s="1"/>
       <c r="D685" s="1"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A686" s="1"/>
       <c r="D686" s="1"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A687" s="1"/>
       <c r="D687" s="1"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A688" s="1"/>
       <c r="D688" s="1"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="D689" s="1"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
       <c r="D690" s="1"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A691" s="1"/>
       <c r="D691" s="1"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A692" s="1"/>
       <c r="D692" s="1"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A693" s="1"/>
       <c r="D693" s="1"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A694" s="1"/>
       <c r="D694" s="1"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A695" s="1"/>
       <c r="D695" s="1"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A696" s="1"/>
       <c r="D696" s="1"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A697" s="1"/>
       <c r="D697" s="1"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A698" s="1"/>
       <c r="D698" s="1"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A699" s="1"/>
       <c r="D699" s="1"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A700" s="1"/>
       <c r="D700" s="1"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A701" s="1"/>
       <c r="D701" s="1"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A702" s="1"/>
       <c r="D702" s="1"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A703" s="1"/>
       <c r="D703" s="1"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A704" s="1"/>
       <c r="D704" s="1"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A705" s="1"/>
       <c r="D705" s="1"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A706" s="1"/>
       <c r="D706" s="1"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A707" s="1"/>
       <c r="D707" s="1"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A708" s="1"/>
       <c r="D708" s="1"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A709" s="1"/>
       <c r="D709" s="1"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A710" s="1"/>
       <c r="D710" s="1"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A711" s="1"/>
       <c r="D711" s="1"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A712" s="1"/>
       <c r="D712" s="1"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A713" s="1"/>
       <c r="D713" s="1"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A714" s="1"/>
       <c r="D714" s="1"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A715" s="1"/>
       <c r="D715" s="1"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A716" s="1"/>
       <c r="D716" s="1"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A717" s="1"/>
       <c r="D717" s="1"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A718" s="1"/>
       <c r="D718" s="1"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A719" s="1"/>
       <c r="D719" s="1"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A720" s="1"/>
       <c r="D720" s="1"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A721" s="1"/>
       <c r="D721" s="1"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A722" s="1"/>
       <c r="D722" s="1"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A723" s="1"/>
       <c r="D723" s="1"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A724" s="1"/>
       <c r="D724" s="1"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A725" s="1"/>
       <c r="D725" s="1"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A726" s="1"/>
       <c r="D726" s="1"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A727" s="1"/>
       <c r="D727" s="1"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A728" s="1"/>
       <c r="D728" s="1"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A729" s="1"/>
       <c r="D729" s="1"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A730" s="1"/>
       <c r="D730" s="1"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A731" s="1"/>
       <c r="D731" s="1"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A732" s="1"/>
       <c r="D732" s="1"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A733" s="1"/>
       <c r="D733" s="1"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A734" s="1"/>
       <c r="D734" s="1"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A735" s="1"/>
       <c r="D735" s="1"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A736" s="1"/>
       <c r="D736" s="1"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A737" s="1"/>
       <c r="D737" s="1"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A738" s="1"/>
       <c r="D738" s="1"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A739" s="1"/>
       <c r="D739" s="1"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A740" s="1"/>
       <c r="D740" s="1"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A741" s="1"/>
       <c r="D741" s="1"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A742" s="1"/>
       <c r="D742" s="1"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A743" s="1"/>
       <c r="D743" s="1"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A744" s="1"/>
       <c r="D744" s="1"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A745" s="1"/>
       <c r="D745" s="1"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A746" s="1"/>
       <c r="D746" s="1"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A747" s="1"/>
       <c r="D747" s="1"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A748" s="1"/>
       <c r="D748" s="1"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A749" s="1"/>
       <c r="D749" s="1"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A750" s="1"/>
       <c r="D750" s="1"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A751" s="1"/>
       <c r="D751" s="1"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A752" s="1"/>
       <c r="D752" s="1"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A753" s="1"/>
       <c r="D753" s="1"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A754" s="1"/>
       <c r="D754" s="1"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A755" s="1"/>
       <c r="D755" s="1"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A756" s="1"/>
       <c r="D756" s="1"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A757" s="1"/>
       <c r="D757" s="1"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A758" s="1"/>
       <c r="D758" s="1"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A759" s="1"/>
       <c r="D759" s="1"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A760" s="1"/>
       <c r="D760" s="1"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A761" s="1"/>
       <c r="D761" s="1"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A762" s="1"/>
       <c r="D762" s="1"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A763" s="1"/>
       <c r="D763" s="1"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A764" s="1"/>
       <c r="D764" s="1"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A765" s="1"/>
       <c r="D765" s="1"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A766" s="1"/>
       <c r="D766" s="1"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A767" s="1"/>
       <c r="D767" s="1"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A768" s="1"/>
       <c r="D768" s="1"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A769" s="1"/>
       <c r="D769" s="1"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A770" s="1"/>
       <c r="D770" s="1"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A771" s="1"/>
       <c r="D771" s="1"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A772" s="1"/>
       <c r="D772" s="1"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A773" s="1"/>
       <c r="D773" s="1"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A774" s="1"/>
       <c r="D774" s="1"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A775" s="1"/>
       <c r="D775" s="1"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A776" s="1"/>
       <c r="D776" s="1"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A777" s="1"/>
       <c r="D777" s="1"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A778" s="1"/>
       <c r="D778" s="1"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A779" s="1"/>
       <c r="D779" s="1"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A780" s="1"/>
       <c r="D780" s="1"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A781" s="1"/>
       <c r="D781" s="1"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A782" s="1"/>
       <c r="D782" s="1"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A783" s="1"/>
       <c r="D783" s="1"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A784" s="1"/>
       <c r="D784" s="1"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A785" s="1"/>
       <c r="D785" s="1"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A786" s="1"/>
       <c r="D786" s="1"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A787" s="1"/>
       <c r="D787" s="1"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A788" s="1"/>
       <c r="D788" s="1"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A789" s="1"/>
       <c r="D789" s="1"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A790" s="1"/>
       <c r="D790" s="1"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A791" s="1"/>
       <c r="D791" s="1"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A792" s="1"/>
       <c r="D792" s="1"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A793" s="1"/>
       <c r="D793" s="1"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A794" s="1"/>
       <c r="D794" s="1"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A795" s="1"/>
       <c r="D795" s="1"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A796" s="1"/>
       <c r="D796" s="1"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A797" s="1"/>
       <c r="D797" s="1"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A798" s="1"/>
       <c r="D798" s="1"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A799" s="1"/>
       <c r="D799" s="1"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A800" s="1"/>
       <c r="D800" s="1"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A801" s="1"/>
       <c r="D801" s="1"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A802" s="1"/>
       <c r="D802" s="1"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A803" s="1"/>
       <c r="D803" s="1"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A804" s="1"/>
       <c r="D804" s="1"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A805" s="1"/>
       <c r="D805" s="1"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A806" s="1"/>
       <c r="D806" s="1"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A807" s="1"/>
       <c r="D807" s="1"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A808" s="1"/>
       <c r="D808" s="1"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A809" s="1"/>
       <c r="D809" s="1"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A810" s="1"/>
       <c r="D810" s="1"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A811" s="1"/>
       <c r="D811" s="1"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A812" s="1"/>
       <c r="D812" s="1"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A813" s="1"/>
       <c r="D813" s="1"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A814" s="1"/>
       <c r="D814" s="1"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A815" s="1"/>
       <c r="D815" s="1"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A816" s="1"/>
       <c r="D816" s="1"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A817" s="1"/>
       <c r="D817" s="1"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A818" s="1"/>
       <c r="D818" s="1"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A819" s="1"/>
       <c r="D819" s="1"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A820" s="1"/>
       <c r="D820" s="1"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A821" s="1"/>
       <c r="D821" s="1"/>
     </row>
-    <row r="822">
+    <row r="822" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A822" s="1"/>
       <c r="D822" s="1"/>
     </row>
-    <row r="823">
+    <row r="823" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A823" s="1"/>
       <c r="D823" s="1"/>
     </row>
-    <row r="824">
+    <row r="824" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A824" s="1"/>
       <c r="D824" s="1"/>
     </row>
-    <row r="825">
+    <row r="825" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A825" s="1"/>
       <c r="D825" s="1"/>
     </row>
-    <row r="826">
+    <row r="826" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A826" s="1"/>
       <c r="D826" s="1"/>
     </row>
-    <row r="827">
+    <row r="827" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A827" s="1"/>
       <c r="D827" s="1"/>
     </row>
-    <row r="828">
+    <row r="828" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A828" s="1"/>
       <c r="D828" s="1"/>
     </row>
-    <row r="829">
+    <row r="829" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A829" s="1"/>
       <c r="D829" s="1"/>
     </row>
-    <row r="830">
+    <row r="830" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A830" s="1"/>
       <c r="D830" s="1"/>
     </row>
-    <row r="831">
+    <row r="831" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A831" s="1"/>
       <c r="D831" s="1"/>
     </row>
-    <row r="832">
+    <row r="832" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A832" s="1"/>
       <c r="D832" s="1"/>
     </row>
-    <row r="833">
+    <row r="833" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A833" s="1"/>
       <c r="D833" s="1"/>
     </row>
-    <row r="834">
+    <row r="834" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A834" s="1"/>
       <c r="D834" s="1"/>
     </row>
-    <row r="835">
+    <row r="835" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A835" s="1"/>
       <c r="D835" s="1"/>
     </row>
-    <row r="836">
+    <row r="836" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A836" s="1"/>
       <c r="D836" s="1"/>
     </row>
-    <row r="837">
+    <row r="837" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A837" s="1"/>
       <c r="D837" s="1"/>
     </row>
-    <row r="838">
+    <row r="838" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A838" s="1"/>
       <c r="D838" s="1"/>
     </row>
-    <row r="839">
+    <row r="839" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A839" s="1"/>
       <c r="D839" s="1"/>
     </row>
-    <row r="840">
+    <row r="840" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A840" s="1"/>
       <c r="D840" s="1"/>
     </row>
-    <row r="841">
+    <row r="841" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A841" s="1"/>
       <c r="D841" s="1"/>
     </row>
-    <row r="842">
+    <row r="842" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A842" s="1"/>
       <c r="D842" s="1"/>
     </row>
-    <row r="843">
+    <row r="843" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A843" s="1"/>
       <c r="D843" s="1"/>
     </row>
-    <row r="844">
+    <row r="844" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A844" s="1"/>
       <c r="D844" s="1"/>
     </row>
-    <row r="845">
+    <row r="845" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A845" s="1"/>
       <c r="D845" s="1"/>
     </row>
-    <row r="846">
+    <row r="846" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A846" s="1"/>
       <c r="D846" s="1"/>
     </row>
-    <row r="847">
+    <row r="847" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A847" s="1"/>
       <c r="D847" s="1"/>
     </row>
-    <row r="848">
+    <row r="848" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A848" s="1"/>
       <c r="D848" s="1"/>
     </row>
-    <row r="849">
+    <row r="849" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A849" s="1"/>
       <c r="D849" s="1"/>
     </row>
-    <row r="850">
+    <row r="850" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A850" s="1"/>
       <c r="D850" s="1"/>
     </row>
-    <row r="851">
+    <row r="851" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A851" s="1"/>
       <c r="D851" s="1"/>
     </row>
-    <row r="852">
+    <row r="852" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A852" s="1"/>
       <c r="D852" s="1"/>
     </row>
-    <row r="853">
+    <row r="853" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A853" s="1"/>
       <c r="D853" s="1"/>
     </row>
-    <row r="854">
+    <row r="854" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A854" s="1"/>
       <c r="D854" s="1"/>
     </row>
-    <row r="855">
+    <row r="855" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A855" s="1"/>
       <c r="D855" s="1"/>
     </row>
-    <row r="856">
+    <row r="856" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A856" s="1"/>
       <c r="D856" s="1"/>
     </row>
-    <row r="857">
+    <row r="857" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A857" s="1"/>
       <c r="D857" s="1"/>
     </row>
-    <row r="858">
+    <row r="858" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A858" s="1"/>
       <c r="D858" s="1"/>
     </row>
-    <row r="859">
+    <row r="859" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A859" s="1"/>
       <c r="D859" s="1"/>
     </row>
-    <row r="860">
+    <row r="860" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A860" s="1"/>
       <c r="D860" s="1"/>
     </row>
-    <row r="861">
+    <row r="861" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A861" s="1"/>
       <c r="D861" s="1"/>
     </row>
-    <row r="862">
+    <row r="862" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A862" s="1"/>
       <c r="D862" s="1"/>
     </row>
-    <row r="863">
+    <row r="863" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A863" s="1"/>
       <c r="D863" s="1"/>
     </row>
-    <row r="864">
+    <row r="864" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A864" s="1"/>
       <c r="D864" s="1"/>
     </row>
-    <row r="865">
+    <row r="865" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A865" s="1"/>
       <c r="D865" s="1"/>
     </row>
-    <row r="866">
+    <row r="866" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A866" s="1"/>
       <c r="D866" s="1"/>
     </row>
-    <row r="867">
+    <row r="867" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A867" s="1"/>
       <c r="D867" s="1"/>
     </row>
-    <row r="868">
+    <row r="868" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A868" s="1"/>
       <c r="D868" s="1"/>
     </row>
-    <row r="869">
+    <row r="869" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A869" s="1"/>
       <c r="D869" s="1"/>
     </row>
-    <row r="870">
+    <row r="870" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A870" s="1"/>
       <c r="D870" s="1"/>
     </row>
-    <row r="871">
+    <row r="871" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A871" s="1"/>
       <c r="D871" s="1"/>
     </row>
-    <row r="872">
+    <row r="872" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A872" s="1"/>
       <c r="D872" s="1"/>
     </row>
-    <row r="873">
+    <row r="873" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A873" s="1"/>
       <c r="D873" s="1"/>
     </row>
-    <row r="874">
+    <row r="874" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A874" s="1"/>
       <c r="D874" s="1"/>
     </row>
-    <row r="875">
+    <row r="875" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A875" s="1"/>
       <c r="D875" s="1"/>
     </row>
-    <row r="876">
+    <row r="876" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A876" s="1"/>
       <c r="D876" s="1"/>
     </row>
-    <row r="877">
+    <row r="877" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A877" s="1"/>
       <c r="D877" s="1"/>
     </row>
-    <row r="878">
+    <row r="878" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A878" s="1"/>
       <c r="D878" s="1"/>
     </row>
-    <row r="879">
+    <row r="879" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A879" s="1"/>
       <c r="D879" s="1"/>
     </row>
-    <row r="880">
+    <row r="880" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A880" s="1"/>
       <c r="D880" s="1"/>
     </row>
-    <row r="881">
+    <row r="881" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A881" s="1"/>
       <c r="D881" s="1"/>
     </row>
-    <row r="882">
+    <row r="882" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A882" s="1"/>
       <c r="D882" s="1"/>
     </row>
-    <row r="883">
+    <row r="883" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A883" s="1"/>
       <c r="D883" s="1"/>
     </row>
-    <row r="884">
+    <row r="884" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A884" s="1"/>
       <c r="D884" s="1"/>
     </row>
-    <row r="885">
+    <row r="885" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A885" s="1"/>
       <c r="D885" s="1"/>
     </row>
-    <row r="886">
+    <row r="886" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A886" s="1"/>
       <c r="D886" s="1"/>
     </row>
-    <row r="887">
+    <row r="887" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A887" s="1"/>
       <c r="D887" s="1"/>
     </row>
-    <row r="888">
+    <row r="888" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A888" s="1"/>
       <c r="D888" s="1"/>
     </row>
-    <row r="889">
+    <row r="889" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A889" s="1"/>
       <c r="D889" s="1"/>
     </row>
-    <row r="890">
+    <row r="890" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A890" s="1"/>
       <c r="D890" s="1"/>
     </row>
-    <row r="891">
+    <row r="891" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A891" s="1"/>
       <c r="D891" s="1"/>
     </row>
-    <row r="892">
+    <row r="892" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A892" s="1"/>
       <c r="D892" s="1"/>
     </row>
-    <row r="893">
+    <row r="893" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A893" s="1"/>
       <c r="D893" s="1"/>
     </row>
-    <row r="894">
+    <row r="894" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A894" s="1"/>
       <c r="D894" s="1"/>
     </row>
-    <row r="895">
+    <row r="895" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A895" s="1"/>
       <c r="D895" s="1"/>
     </row>
-    <row r="896">
+    <row r="896" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A896" s="1"/>
       <c r="D896" s="1"/>
     </row>
-    <row r="897">
+    <row r="897" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A897" s="1"/>
       <c r="D897" s="1"/>
     </row>
-    <row r="898">
+    <row r="898" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A898" s="1"/>
       <c r="D898" s="1"/>
     </row>
-    <row r="899">
+    <row r="899" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A899" s="1"/>
       <c r="D899" s="1"/>
     </row>
-    <row r="900">
+    <row r="900" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A900" s="1"/>
       <c r="D900" s="1"/>
     </row>
-    <row r="901">
+    <row r="901" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A901" s="1"/>
       <c r="D901" s="1"/>
     </row>
-    <row r="902">
+    <row r="902" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A902" s="1"/>
       <c r="D902" s="1"/>
     </row>
-    <row r="903">
+    <row r="903" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A903" s="1"/>
       <c r="D903" s="1"/>
     </row>
-    <row r="904">
+    <row r="904" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A904" s="1"/>
       <c r="D904" s="1"/>
     </row>
-    <row r="905">
+    <row r="905" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A905" s="1"/>
       <c r="D905" s="1"/>
     </row>
-    <row r="906">
+    <row r="906" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A906" s="1"/>
       <c r="D906" s="1"/>
     </row>
-    <row r="907">
+    <row r="907" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A907" s="1"/>
       <c r="D907" s="1"/>
     </row>
-    <row r="908">
+    <row r="908" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A908" s="1"/>
       <c r="D908" s="1"/>
     </row>
-    <row r="909">
+    <row r="909" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A909" s="1"/>
       <c r="D909" s="1"/>
     </row>
-    <row r="910">
+    <row r="910" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A910" s="1"/>
       <c r="D910" s="1"/>
     </row>
-    <row r="911">
+    <row r="911" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A911" s="1"/>
       <c r="D911" s="1"/>
     </row>
-    <row r="912">
+    <row r="912" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A912" s="1"/>
       <c r="D912" s="1"/>
     </row>
-    <row r="913">
+    <row r="913" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A913" s="1"/>
       <c r="D913" s="1"/>
     </row>
-    <row r="914">
+    <row r="914" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A914" s="1"/>
       <c r="D914" s="1"/>
     </row>
-    <row r="915">
+    <row r="915" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A915" s="1"/>
       <c r="D915" s="1"/>
     </row>
-    <row r="916">
+    <row r="916" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A916" s="1"/>
       <c r="D916" s="1"/>
     </row>
-    <row r="917">
+    <row r="917" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A917" s="1"/>
       <c r="D917" s="1"/>
     </row>
-    <row r="918">
+    <row r="918" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A918" s="1"/>
       <c r="D918" s="1"/>
     </row>
-    <row r="919">
+    <row r="919" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A919" s="1"/>
       <c r="D919" s="1"/>
     </row>
-    <row r="920">
+    <row r="920" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A920" s="1"/>
       <c r="D920" s="1"/>
     </row>
-    <row r="921">
+    <row r="921" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A921" s="1"/>
       <c r="D921" s="1"/>
     </row>
-    <row r="922">
+    <row r="922" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A922" s="1"/>
       <c r="D922" s="1"/>
     </row>
-    <row r="923">
+    <row r="923" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A923" s="1"/>
       <c r="D923" s="1"/>
     </row>
-    <row r="924">
+    <row r="924" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A924" s="1"/>
       <c r="D924" s="1"/>
     </row>
-    <row r="925">
+    <row r="925" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A925" s="1"/>
       <c r="D925" s="1"/>
     </row>
-    <row r="926">
+    <row r="926" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A926" s="1"/>
       <c r="D926" s="1"/>
     </row>
-    <row r="927">
+    <row r="927" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A927" s="1"/>
       <c r="D927" s="1"/>
     </row>
-    <row r="928">
+    <row r="928" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A928" s="1"/>
       <c r="D928" s="1"/>
     </row>
-    <row r="929">
+    <row r="929" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A929" s="1"/>
       <c r="D929" s="1"/>
     </row>
-    <row r="930">
+    <row r="930" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A930" s="1"/>
       <c r="D930" s="1"/>
     </row>
-    <row r="931">
+    <row r="931" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A931" s="1"/>
       <c r="D931" s="1"/>
     </row>
-    <row r="932">
+    <row r="932" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A932" s="1"/>
       <c r="D932" s="1"/>
     </row>
-    <row r="933">
+    <row r="933" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A933" s="1"/>
       <c r="D933" s="1"/>
     </row>
-    <row r="934">
+    <row r="934" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A934" s="1"/>
       <c r="D934" s="1"/>
     </row>
-    <row r="935">
+    <row r="935" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A935" s="1"/>
       <c r="D935" s="1"/>
     </row>
-    <row r="936">
+    <row r="936" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A936" s="1"/>
       <c r="D936" s="1"/>
     </row>
-    <row r="937">
+    <row r="937" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A937" s="1"/>
       <c r="D937" s="1"/>
     </row>
-    <row r="938">
+    <row r="938" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A938" s="1"/>
       <c r="D938" s="1"/>
     </row>
-    <row r="939">
+    <row r="939" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A939" s="1"/>
       <c r="D939" s="1"/>
     </row>
-    <row r="940">
+    <row r="940" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A940" s="1"/>
       <c r="D940" s="1"/>
     </row>
-    <row r="941">
+    <row r="941" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A941" s="1"/>
       <c r="D941" s="1"/>
     </row>
-    <row r="942">
+    <row r="942" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A942" s="1"/>
       <c r="D942" s="1"/>
     </row>
-    <row r="943">
+    <row r="943" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A943" s="1"/>
       <c r="D943" s="1"/>
     </row>
-    <row r="944">
+    <row r="944" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A944" s="1"/>
       <c r="D944" s="1"/>
     </row>
-    <row r="945">
+    <row r="945" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A945" s="1"/>
       <c r="D945" s="1"/>
     </row>
-    <row r="946">
+    <row r="946" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A946" s="1"/>
       <c r="D946" s="1"/>
     </row>
-    <row r="947">
+    <row r="947" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A947" s="1"/>
       <c r="D947" s="1"/>
     </row>
-    <row r="948">
+    <row r="948" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A948" s="1"/>
       <c r="D948" s="1"/>
     </row>
-    <row r="949">
+    <row r="949" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A949" s="1"/>
       <c r="D949" s="1"/>
     </row>
-    <row r="950">
+    <row r="950" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A950" s="1"/>
       <c r="D950" s="1"/>
     </row>
-    <row r="951">
+    <row r="951" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A951" s="1"/>
       <c r="D951" s="1"/>
     </row>
-    <row r="952">
+    <row r="952" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A952" s="1"/>
       <c r="D952" s="1"/>
     </row>
-    <row r="953">
+    <row r="953" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A953" s="1"/>
       <c r="D953" s="1"/>
     </row>
-    <row r="954">
+    <row r="954" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A954" s="1"/>
       <c r="D954" s="1"/>
     </row>
-    <row r="955">
+    <row r="955" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A955" s="1"/>
       <c r="D955" s="1"/>
     </row>
-    <row r="956">
+    <row r="956" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A956" s="1"/>
       <c r="D956" s="1"/>
     </row>
-    <row r="957">
+    <row r="957" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A957" s="1"/>
       <c r="D957" s="1"/>
     </row>
-    <row r="958">
+    <row r="958" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A958" s="1"/>
       <c r="D958" s="1"/>
     </row>
-    <row r="959">
+    <row r="959" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A959" s="1"/>
       <c r="D959" s="1"/>
     </row>
-    <row r="960">
+    <row r="960" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A960" s="1"/>
       <c r="D960" s="1"/>
     </row>
-    <row r="961">
+    <row r="961" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A961" s="1"/>
       <c r="D961" s="1"/>
     </row>
-    <row r="962">
+    <row r="962" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A962" s="1"/>
       <c r="D962" s="1"/>
     </row>
-    <row r="963">
+    <row r="963" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A963" s="1"/>
       <c r="D963" s="1"/>
     </row>
-    <row r="964">
+    <row r="964" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A964" s="1"/>
       <c r="D964" s="1"/>
     </row>
-    <row r="965">
+    <row r="965" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A965" s="1"/>
       <c r="D965" s="1"/>
     </row>
-    <row r="966">
+    <row r="966" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A966" s="1"/>
       <c r="D966" s="1"/>
     </row>
-    <row r="967">
+    <row r="967" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A967" s="1"/>
       <c r="D967" s="1"/>
     </row>
-    <row r="968">
+    <row r="968" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A968" s="1"/>
       <c r="D968" s="1"/>
     </row>
-    <row r="969">
+    <row r="969" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A969" s="1"/>
       <c r="D969" s="1"/>
     </row>
-    <row r="970">
+    <row r="970" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A970" s="1"/>
       <c r="D970" s="1"/>
     </row>
-    <row r="971">
+    <row r="971" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A971" s="1"/>
       <c r="D971" s="1"/>
     </row>
-    <row r="972">
+    <row r="972" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A972" s="1"/>
       <c r="D972" s="1"/>
     </row>
-    <row r="973">
+    <row r="973" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A973" s="1"/>
       <c r="D973" s="1"/>
     </row>
-    <row r="974">
+    <row r="974" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A974" s="1"/>
       <c r="D974" s="1"/>
     </row>
-    <row r="975">
+    <row r="975" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A975" s="1"/>
       <c r="D975" s="1"/>
     </row>
-    <row r="976">
+    <row r="976" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A976" s="1"/>
       <c r="D976" s="1"/>
     </row>
-    <row r="977">
+    <row r="977" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A977" s="1"/>
       <c r="D977" s="1"/>
     </row>
@@ -5703,9 +5790,8 @@
   <mergeCells count="1">
     <mergeCell ref="E2:E5"/>
   </mergeCells>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
 </worksheet>
 </file>